--- a/XuMiuDuTing/RabiConfig/xlsx/Buff.xlsx
+++ b/XuMiuDuTing/RabiConfig/xlsx/Buff.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\XuMiuDuTing\XuMiuDuTing\RabiConfig\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D7ADB8-6B30-4D09-A7CD-C86539128C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01445EB8-E314-4F0D-A5C2-E40FDAD55364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="79">
   <si>
     <t>string</t>
   </si>
@@ -315,6 +315,17 @@
   </si>
   <si>
     <t>canAddLayer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机制判定类</t>
+  </si>
+  <si>
+    <t>不可选中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不成为任何机制或技能或buff效果的目标。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -671,10 +682,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1178,6 +1189,35 @@
         <v>1</v>
       </c>
     </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1187,10 +1227,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FBFA2BD-52E9-4AC2-91B8-082F0AADDFBD}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1337,6 +1377,14 @@
         <v>24</v>
       </c>
     </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" t="s">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/XuMiuDuTing/RabiConfig/xlsx/Buff.xlsx
+++ b/XuMiuDuTing/RabiConfig/xlsx/Buff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\XuMiuDuTing\XuMiuDuTing\RabiConfig\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01445EB8-E314-4F0D-A5C2-E40FDAD55364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B40878E8-337C-4499-B0BE-E2B3386D5DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -685,7 +685,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
